--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Item #</t>
   </si>
@@ -46,54 +46,54 @@
     <t>per board</t>
   </si>
   <si>
-    <t>&lt;Parameter prj not found&gt;</t>
-  </si>
-  <si>
-    <t>06/12/2016</t>
-  </si>
-  <si>
-    <t>16:27:58</t>
-  </si>
-  <si>
-    <t>&lt;Parameter OrderQty not found&gt;</t>
+    <t>N-GLCD</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>11:31:35</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Designator</t>
   </si>
   <si>
+    <t>C1, C2, C3, C4</t>
+  </si>
+  <si>
+    <t>LCD1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
     <t>B2</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4</t>
-  </si>
-  <si>
-    <t>LCD1</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>S401M16KR</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>PCA8561AHN</t>
+  </si>
+  <si>
     <t>N-GMS-DISP</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>S401M16KR</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>PCA8561AHN</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
@@ -109,40 +109,94 @@
     <t>QFN32-HVQFN32_0.5mm_LONG</t>
   </si>
   <si>
-    <t>#Column Name Error:Manufacturer</t>
+    <t>S.Footprint</t>
+  </si>
+  <si>
+    <t>0603 (1608 metric)</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>CAPACITOR</t>
   </si>
   <si>
     <t>RESISTOR</t>
   </si>
   <si>
-    <t>#Column Name Error:S.Description</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Manufacturer 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Manufacturer Part Number 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Supplier 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Supplier Currency 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Supplier Stock 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Supplier Part Number 1</t>
+    <t>S.Description</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 0.1uF 50volts 10% X7R AUTO</t>
+  </si>
+  <si>
+    <t>LCD Numeric Display Modules 4 Digit 0.17" 7 Seg Reflective</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1/10watt 10Kohms 1%</t>
+  </si>
+  <si>
+    <t>LCD Drivers Automotive 18 X 4 LCD segment driver</t>
+  </si>
+  <si>
+    <t>Manufacturer 1</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>Lumex</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>NXP Semiconductors</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>C0603C104K5RACAUTO</t>
+  </si>
+  <si>
+    <t>CRCW060310K0FKEA</t>
+  </si>
+  <si>
+    <t>PCA8561AHN/AY</t>
+  </si>
+  <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Supplier Currency 1</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Supplier Stock 1</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>80-C0603C104K5RAUTO</t>
+  </si>
+  <si>
+    <t>696-LCD-S401M16KR</t>
+  </si>
+  <si>
+    <t>71-CRCW0603-10K-E3</t>
+  </si>
+  <si>
+    <t>771-PCA8561AHN/AY</t>
   </si>
   <si>
     <t>#Column Name Error:Divider</t>
@@ -151,10 +205,10 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>#Column Name Error:Supplier Order Qty 1</t>
-  </si>
-  <si>
-    <t>#Column Name Error:Supplier Unit Price 1</t>
+    <t>Supplier Order Qty 1</t>
+  </si>
+  <si>
+    <t>Supplier Unit Price 1</t>
   </si>
 </sst>
 </file>
@@ -289,12 +343,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,6 +350,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,9 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -494,21 +545,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +575,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,7 +589,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -551,26 +602,32 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -587,6 +644,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -890,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,18 +961,18 @@
     <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="34.5703125" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="24" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="28" style="27" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="28" style="26" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="26" customWidth="1"/>
     <col min="15" max="15" width="5.42578125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="6.42578125" style="30" customWidth="1"/>
+    <col min="16" max="17" width="6.42578125" style="29" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" customWidth="1"/>
     <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
@@ -929,369 +991,463 @@
       <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>36</v>
+      <c r="F1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <f>ROW(A2) - ROW($A$1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="44">
+      <c r="D2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="10">
+        <v>388678</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="43">
         <v>1</v>
       </c>
-      <c r="O2" s="11">
-        <v>1</v>
-      </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="51">
+      <c r="O2" s="10">
+        <v>4</v>
+      </c>
+      <c r="P2" s="46">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="50">
         <f>ROUNDUP(P2*N2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31">
+        <v>40</v>
+      </c>
+      <c r="R2" s="30">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="S2" s="30">
         <f>R2*Q2</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="52">
+        <v>1.32</v>
+      </c>
+      <c r="T2" s="51">
         <f>ROW(T2) - ROW($A$1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <f t="shared" ref="A3:A6" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="44">
+      <c r="D3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="10">
+        <v>4067</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="43">
         <v>1</v>
       </c>
-      <c r="O3" s="11">
-        <v>4</v>
-      </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="51">
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="46">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="50">
         <f t="shared" ref="Q3:Q6" si="1">ROUNDUP(P3*N3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31">
+        <v>10</v>
+      </c>
+      <c r="R3" s="30">
+        <v>1.3</v>
+      </c>
+      <c r="S3" s="30">
         <f t="shared" ref="S3:S6" si="2">R3*Q3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="52">
+        <v>13</v>
+      </c>
+      <c r="T3" s="51">
         <f t="shared" ref="T3:T6" si="3">ROW(T3) - ROW($A$1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <f>ROW(A4) - ROW($A$1)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="44">
+      <c r="D4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1319395</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="43">
         <v>1</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>1</v>
       </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="51">
+      <c r="P4" s="46">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="50">
         <f>ROUNDUP(P4*N4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31">
+        <v>10</v>
+      </c>
+      <c r="R4" s="30">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="S4" s="30">
         <f>R4*Q4</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="52">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="T4" s="51">
         <f>ROW(T4) - ROW($A$1)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="44">
+      <c r="D5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="10">
+        <v>5228</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="43">
         <v>1</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>1</v>
       </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="51">
+      <c r="P5" s="46">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="50">
         <f t="shared" ref="Q5" si="4">ROUNDUP(P5*N5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31">
+        <v>10</v>
+      </c>
+      <c r="R5" s="30">
+        <v>1.17</v>
+      </c>
+      <c r="S5" s="30">
         <f t="shared" ref="S5" si="5">R5*Q5</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="52">
+        <v>11.7</v>
+      </c>
+      <c r="T5" s="51">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <f>ROW(A6) - ROW($A$1)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="44">
+      <c r="F6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="43">
         <v>1</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="10">
         <v>1</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="51">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="50">
         <f>ROUNDUP(P6*N6,0)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31">
+      <c r="R6" s="30"/>
+      <c r="S6" s="30">
         <f>R6*Q6</f>
         <v>0</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T6" s="51">
         <f>ROW(T6) - ROW($A$1)</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="1:20" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="K8" s="14" t="s">
+      <c r="I8" s="16"/>
+      <c r="K8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="36">
+      <c r="L8" s="14"/>
+      <c r="M8" s="35">
         <f ca="1">NOW()</f>
-        <v>42710.686110648145</v>
-      </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="37" t="s">
+        <v>42711.480288541665</v>
+      </c>
+      <c r="N8" s="41"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="37">
         <f>SUM(S2:S6)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="46" t="e">
+        <v>26.43</v>
+      </c>
+      <c r="T8" s="45">
         <f>(SUM(S2:S6))/P9</f>
-        <v>#VALUE!</v>
+        <v>2.6429999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="56" t="s">
+      <c r="N9" s="42"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40" t="s">
+      <c r="Q9" s="40"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="45" t="s">
+      <c r="T9" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="P10" s="53"/>
+      <c r="P10" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bom/PurchaseList.xlsx
+++ b/bom/PurchaseList.xlsx
@@ -49,10 +49,10 @@
     <t>N-GLCD</t>
   </si>
   <si>
-    <t>07/12/2016</t>
-  </si>
-  <si>
-    <t>11:31:35</t>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>12:14:28</t>
   </si>
   <si>
     <t>10</t>
@@ -67,7 +67,7 @@
     <t>LCD1</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R1, R2, R3</t>
   </si>
   <si>
     <t>U1</t>
@@ -1076,7 +1076,7 @@
         <v>54</v>
       </c>
       <c r="L2" s="10">
-        <v>388678</v>
+        <v>388668</v>
       </c>
       <c r="M2" s="49" t="s">
         <v>57</v>
@@ -1208,7 +1208,7 @@
         <v>54</v>
       </c>
       <c r="L4" s="10">
-        <v>1319395</v>
+        <v>1291554</v>
       </c>
       <c r="M4" s="49" t="s">
         <v>59</v>
@@ -1217,21 +1217,21 @@
         <v>1</v>
       </c>
       <c r="O4" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="46">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="50">
         <f>ROUNDUP(P4*N4,0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R4" s="30">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="S4" s="30">
         <f>R4*Q4</f>
-        <v>0.41000000000000003</v>
+        <v>1.23</v>
       </c>
       <c r="T4" s="51">
         <f>ROW(T4) - ROW($A$1)</f>
@@ -1410,7 +1410,7 @@
       <c r="L8" s="14"/>
       <c r="M8" s="35">
         <f ca="1">NOW()</f>
-        <v>42711.480288541665</v>
+        <v>42713.510070717595</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="15"/>
@@ -1421,11 +1421,11 @@
       </c>
       <c r="S8" s="37">
         <f>SUM(S2:S6)</f>
-        <v>26.43</v>
+        <v>27.25</v>
       </c>
       <c r="T8" s="45">
         <f>(SUM(S2:S6))/P9</f>
-        <v>2.6429999999999998</v>
+        <v>2.7250000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
